--- a/bases/totalnascimentos_go.xlsx
+++ b/bases/totalnascimentos_go.xlsx
@@ -1,21 +1,164 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39ffc30baf637d13/Documents/GitHub/prophet_gestantes/bases/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FB969EDC8F79A8D366075C52F37BD2725A4F380B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC815379-2DDC-43BA-A680-8821B53BED59}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+  <si>
+    <t>mes_ano</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>previsão</t>
+  </si>
+  <si>
+    <t>2021-11</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>2022-07</t>
+  </si>
+  <si>
+    <t>2022-08</t>
+  </si>
+  <si>
+    <t>2022-09</t>
+  </si>
+  <si>
+    <t>2022-10</t>
+  </si>
+  <si>
+    <t>2022-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2023-12</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +206,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,263 +537,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>mes_ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2021-10</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>7205.776160502039</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
+        <v>2021</v>
+      </c>
+      <c r="C2">
+        <v>7205.7761605020387</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>7052.807908354612</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
+        <v>2021</v>
+      </c>
+      <c r="C3">
+        <v>7052.8079083546118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>7236.580123232252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2022-01</t>
-        </is>
+        <v>2021</v>
+      </c>
+      <c r="C4">
+        <v>7236.5801232322519</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5">
         <v>7359.1052029179</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-02</t>
-        </is>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>7126.535711397442</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-03</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C6">
+        <v>7126.5357113974424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8266.725297616909</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-04</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C7">
+        <v>8266.7252976169093</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>7856.661642019381</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2022-05</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C8">
+        <v>7856.6616420193814</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>7928.341333862766</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2022-06</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C9">
+        <v>7928.3413338627661</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>7369.876227498475</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-07</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>7369.8762274984747</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>7284.242356297908</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2022-08</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C11">
+        <v>7284.2423562979084</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>7291.279308518291</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-09</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C12">
+        <v>7291.2793085182911</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>7341.082039317021</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-10</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C13">
+        <v>7341.0820393170206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>7064.872631907994</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2022-11</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C14">
+        <v>7064.8726319079942</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>6891.824985244663</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>6891.8249852446634</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>7013.281845728063</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2023-01</t>
-        </is>
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <v>7013.2818457280628</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>7261.742879716771</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2023-02</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <v>7261.7428797167713</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>6980.14652898283</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2023-03</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>6980.1465289828302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>8102.399549523945</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2023-04</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C19">
+        <v>8102.3995495239451</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>7616.034946531489</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C20">
+        <v>7616.0349465314894</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>7868.490039418417</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2023-06</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C21">
+        <v>7868.4900394184169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>7211.819304307569</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2023-07</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C22">
+        <v>7211.8193043075689</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>7143.249486373748</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023-08</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C23">
+        <v>7143.2494863737484</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>7125.259360858887</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2023-09</t>
-        </is>
+        <v>2023</v>
+      </c>
+      <c r="C24">
+        <v>7125.2593608588868</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>7120.074522392461</v>
+        <v>2023</v>
+      </c>
+      <c r="C25">
+        <v>7120.0745223924614</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>6973.9885334729897</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2023</v>
+      </c>
+      <c r="C27">
+        <v>6740.9522866361494</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2023</v>
+      </c>
+      <c r="C28">
+        <v>6760.705163003975</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29">
+        <v>7194.4041677391133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>7108.435168148666</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31">
+        <v>7785.0596706947472</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>7629.1515036679311</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33">
+        <v>7687.24028620636</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34">
+        <v>6899.2220870846077</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>7138.8460092290888</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36">
+        <v>6895.734345515546</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>6956.9883342866078</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>6896.4256400406084</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
+        <v>6513.4406295153631</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40">
+        <v>6679.6708965504877</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
